--- a/chatBot/datosChatBoot.xlsx
+++ b/chatBot/datosChatBoot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bengie\Documents\GitHub\Tematico-III\ChatBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bengie\Documents\GitHub\Tematico-III\chatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{36370EAA-27F3-4E27-9780-F0400A3AA4A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{979E944B-E50F-499B-93BC-8E2DFB4C4C9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="42">
   <si>
     <t>if (lastUserMessage === '</t>
   </si>
@@ -69,92 +69,166 @@
     <t>¿Qué dice el artículo 1?</t>
   </si>
   <si>
-    <t>El presente reglamento tiene por objeto regular la circulación de peatones y vehículos en la vía pública y la seguridad vial en la Ciudad de México. Las disposiciones de este reglamento son aplicables a peatones, conductores, pasajeros y propietarios de cualquier tipo de vehículo matriculado en el país o el extranjero y que circule en el territorio dela Ciudad de México. En el presente ordenamiento se establecen las normas respecto a sus movimientos y estacionamiento, en observancia a lo establecido en las leyes, reglamentos, acuerdos, decretos y normatividad local vigente, así como las maniobras de ascenso y descenso de pasajeros o de carga y descarga. De igual forma, determina las condiciones legales y de seguridad a las que se deben ajustar los vehículos y sus conductores para su circulación. En todo lo no previsto en el presente ordenamiento, se aplicará de manera supletoria las disposiciones contenidas en la Ley de Movilidad del Distrito Federal, en la Ley de Cultura Cívica del Distrito Federal y en los programas ambientales y de seguridad vial. V. Todos los usuarios de la vía, que son los enlistados en la fracción anterior, y en especial los conductores de todo tipo de
-vehículos motorizados, deben responsabilizarse del riesgo que implican para los demás usuarios de la vía, por lo que su
+    <t>'|| lastUserMessage == '</t>
+  </si>
+  <si>
+    <t>'; }</t>
+  </si>
+  <si>
+    <t>opcion 3</t>
+  </si>
+  <si>
+    <t>opcion 4</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>')</t>
+  </si>
+  <si>
+    <t>articulo 1</t>
+  </si>
+  <si>
+    <t>¿Qué dice el artículo 2?</t>
+  </si>
+  <si>
+    <t>Artículo 2</t>
+  </si>
+  <si>
+    <t>articulo 2</t>
+  </si>
+  <si>
+    <t>¿que dice el articulo 1?</t>
+  </si>
+  <si>
+    <t>¿Qué dice el artículo 3?</t>
+  </si>
+  <si>
+    <t>articulo 3</t>
+  </si>
+  <si>
+    <t>¿que dice el articulo 2?</t>
+  </si>
+  <si>
+    <t>¿que dice el articulo 3?</t>
+  </si>
+  <si>
+    <t>Artículo 3</t>
+  </si>
+  <si>
+    <t>Artículo 4</t>
+  </si>
+  <si>
+    <t>articulo 4</t>
+  </si>
+  <si>
+    <t>¿que dice el articulo 4?</t>
+  </si>
+  <si>
+    <t>¿Qué dice el artículo 4?</t>
+  </si>
+  <si>
+    <t>¿Qué dice el artículo 5?</t>
+  </si>
+  <si>
+    <t>Artículo 5</t>
+  </si>
+  <si>
+    <t>articulo 5</t>
+  </si>
+  <si>
+    <t>El  presente  reglamento  tiene  por  objeto  regular  la  circulación  de peatones  y vehículos  en  la  vía  pública  y  la seguridad vial en la Ciudad de México.
+Las disposiciones de  este reglamento son aplicables a  peatones,  conductores,  pasajeros  y  propietarios de  cualquier tipo de vehículo  matriculado  en  el  país  o  el  extranjero  y  que  circule  en  el  territorio  dela  Ciudad  de  México.    En  el  presente 
+ordenamiento se establecen las normas respecto a sus movimientos y estacionamiento, en observancia a lo establecido en las  leyes,  reglamentos,  acuerdos,  decretos  y  normatividad  local  vigente,  así  como  las  maniobras  de  ascenso  y  descenso  de pasajeros o de carga y descarga. De igual forma, determina las condiciones legales y de seguridad a las que se deben ajustar los vehículos y sus conductores para su circulación.
+En todo lo no previsto en el presente ordenamiento, se aplicará de manera supletoria las disposiciones contenidas en la Ley de  Movilidad  del  Distrito  Federal,  en  la  Ley  de  Cultura  Cívica  del  Distrito  Federal  y  en  los  programas  ambientales  y  de 
+seguridad vial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La aplicación de este reglamento estará basada en los siguientes principios rectores:
+I.- La  circulación  en  condiciones  de  seguridad  vial  es  un  derecho,  por  lo  que  todas  las  autoridades  en  el  ámbito  de  su competencia deben adoptar medidas para garantizar la protección de la vida e integridad física de las personas, sobre todo de los usuarios vulnerables de la vía;
+II.  La  circulación  en  la  vía  pública  debe  efectuarse  con  cortesía,  por  lo  que  los  ciudadanos  deben
+observar  un  trato respetuoso hacia el resto de los usuarios de la vía, así como a los agentes y personal de apoyo vial; 
+III. Se evitará la colocación de objetos que representen un obstáculo a la circulación de vehículos y tránsito de peatones;
+IV. Se dará prioridad en la utilización del espacio vial de acuerdo a la siguiente jerarquía:
+a)Peatones; en especial personas con discapacidad y movilidad limitada
+b)Ciclistas;
+c)Usuarios del servicio de transporte público de pasajeros;
+d)Prestadores del servicio de transporte público de pasajeros;
+e)Prestadores del servicio de transporte de carga y distribución de mercancías; y
+f)Usuarios de transporte particular automotor y motociclistas.     V. Todos los usuarios de la vía, que son los enlistados en la fracción anterior, y en especial los conductores de todo tipo de 
+vehículos  motorizados,  deben  responsabilizarse  del  riesgo  que  implican  para  los  demás  usuarios  de  la  vía,  por  lo  que  su 
 conducción se realizará de manera precautoria y respetando las disposiciones del presente Reglamento; y
-VI. El uso del automóvil particular deberá ser de manera racional, con el objetivo de mejorar las condiciones de salud y
-protección del ambiente.
-Estos principios deben ser difundidos por autoridades y promotores voluntarios de forma permanente a través de campañas,
-programas y cursos.
-La Secretaría en coordinación con Seguridad Pública, diseñará y llevará a cabo campañas permanentes de cultura de
-movilidad y seguridad vial que garanticen la concientización y respeto a la seguridad de todos los usuarios de la vía, del
-mismo modo, se realizarán acciones para inhibir el consumo de alcohol, narcóticos, estupefacientes o psicotrópicos al
+VI.  El  uso  del  automóvil  particular  deberá  ser  de  manera  racional,  con  el  objetivo  de  mejorar  las  condiciones  de  salud  y protección del ambiente.
+Estos principios deben ser difundidos por autoridades y promotores voluntarios de forma permanente a través de campañas, programas y cursos.
+La  Secretaría  en  coordinación  con  Seguridad  Pública,  diseñará  y  llevará  a  cabo  campañas  permanentes  de  cultura  de 
+movilidad  y  seguridad  vial  que  garanticen  la  concientización  y  respeto  a  la  seguridad  de  todos  los  usuarios  de  la  vía,  del 
+mismo  modo,  se  realizarán  acciones  para  inhibir  el  consumo  de  alcohol,  narcóticos,  estupefacientes  o  psicotrópicos    al 
 conducir.</t>
   </si>
   <si>
-    <t>'|| lastUserMessage == '</t>
-  </si>
-  <si>
-    <t>'; }</t>
-  </si>
-  <si>
-    <t>opcion 3</t>
-  </si>
-  <si>
-    <t>opcion 4</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>')</t>
-  </si>
-  <si>
-    <t>articulo 1</t>
-  </si>
-  <si>
-    <t>¿Qué dice el artículo 2?</t>
-  </si>
-  <si>
-    <t>Artículo 2</t>
-  </si>
-  <si>
-    <t>articulo 2</t>
-  </si>
-  <si>
-    <t>¿que dice el articulo 1?</t>
-  </si>
-  <si>
-    <t>¿Qué dice el artículo 3?</t>
-  </si>
-  <si>
-    <t>articulo 3</t>
-  </si>
-  <si>
-    <t>¿que dice el articulo 2?</t>
-  </si>
-  <si>
-    <t>¿que dice el articulo 3?</t>
-  </si>
-  <si>
-    <t>Artículo 3</t>
-  </si>
-  <si>
-    <t>Artículo 4</t>
-  </si>
-  <si>
-    <t>articulo 4</t>
-  </si>
-  <si>
-    <t>¿que dice el articulo 4?</t>
-  </si>
-  <si>
-    <t>¿Qué dice el artículo 4?</t>
-  </si>
-  <si>
-    <t>¿Qué dice el artículo 5?</t>
-  </si>
-  <si>
-    <t>Artículo 5</t>
-  </si>
-  <si>
-    <t>articulo 5</t>
-  </si>
-  <si>
-    <t>¿que dice el ariculo 5?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>¿que dice el articulo 5?</t>
+  </si>
+  <si>
+    <t>En  el  ámbito  de  sus  atribuciones,  son  autoridades  competentes  para  la  aplicación  del  presente  reglamento  la Secretaría, Seguridad Pública y los Jueces Cívicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Además de lo que señala la Ley y sus reglamentos, para los efectos de este Reglamento, se entiende por:
+I.Agente, elemento de la Policía del Distrito Federal con funciones para el control de tránsito;
+II.Amonestación verbal, acto por el  cual  el agente  advierte  a los peatones, conductores  y  pasajeros de  un  vehículo sobre  el  incumplimiento  cometido  a  las  disposiciones  de  este  reglamento  y  tiene  como  propósito  orientarlos  a conducirse de conformidad con lo establecido en el mismo y prevenir la realización de otras conductas similares;
+III.Área de espera para bicicletas y motocicletas, zona marcada sobre el pavimento en una intersección de vías que tengan  semáforos,  que  permite  a  los  conductores  de  estos  vehículos  aguardar  la  luz  verde  del  semáforo  en  una posición adelantada, de tal forma que sean visibles a los conductores del resto de los vehículos;
+IV.Ayudas técnicas, dispositivos tecnológicos y materiales que permiten habilitar, rehabilitar o compensar una o más 
+limitaciones funcionales, motrices, sensoriales o intelectuales de las Personas con Discapacidad. 
+V.Bicicleta, Vehículo no motorizado de propulsión humana a través de pedales;
+VI.Boleta, documento en donde se hace constar la 
+infracción y la sanción correspondiente; VII.
+Carril, espacio asignado para la circulación de vehículos, ubicado sobre la superficie de rodadura y delimitado por  
+líneas continuas o discontinuas, el cual debe contar con el ancho suficiente para la circulación de vehículos en una 
+fila;
+VIII. Carril confinado, superficie de rodadura con dispositivos de delimitación en su perímetro para el uso preferente o exclusivo de servicios de transporte, así como de cierto tipo de vehículos;
+IX.Ciclista, conductor de un vehículo de tracción humana a través de pedales; se considera también ciclista a aquellos que conducen bicicletas asistidas por motores eléctricos, siempre y cuando ésta desarrolle velocidades de hasta 25 kilómetros por hora; los menores de doce años a bordo de un vehículo no motorizado serán considerados peatones; 
+X.Circulación, desplazamiento por la vía pública de peatones, conductores y ocupantes de vehículos.
+XI. Conductor, toda persona que maneje un vehículo en cualquiera de sus modalidades;
+XII. Cruce  peatonal, área  sobre  el  arroyo  vehicular  asignada  para  el  tránsito  de  peatones,  puede estar  a  nivel  de  la acera o superficie de rodadura;                        XIII. Dispositivos  para  el  control  del  tránsito,  conjunto  de  elementos  que  ordenan  y  orientan  los  movimientos  de tránsito de personas y circulación de vehículos; que previenen y proporcionan información a los usuarios de la vía para garantizar su seguridad, permitiendo una operación efectiva del flujo peatonal y vehicular;
+XIV. Elemento de Seguridad Pública, miembro de la policía preventiva o complementaria;
+XV.Espacios  para  servicios  especiales,  son  todos  aquellos  sitios  en  la  vía  pública  debidamente  autorizados  por  la Secretaría,  exclusivos  para  realizar  maniobras  de  ascenso  y  descenso  de  pasajeros  o  para  como  áreas  reservadas para  personas  con  discapacidad,  servicio  de  acomodadores,  bicicletas  y  motocicletas,  sitios  y  lanzaderas  de transporte público, áreas para carga y descarga, transporte de valores, correos, mensajería, mensajería y paquetería, 
+recolección de residuos sólidos, vehículos
+de emergencia, y los que se señalen por la Secretaria;
+XVI. Formato  de  hecho  de  tránsito,  cédula  en  la  que  se  establecen  las  circunstancias  de  tiempo,  lugar  y  modo  de incidentes  viales,  en  la  cual  el  agente  o  elemento  de  Seguridad  Pública  registra:  fecha,  hora,  lugar;  datos  de  las personas y vehículos involucrados, en su caso, número de lesionados o fallecidos; servicios de  emergencia y en su caso,  del  Ministerio  Publico;  y  cualquier  otro  dato  que  sea  necesario  para  determinar  las  características  del incidente y responsabilidad de quienes hayan intervenido en el hecho. 
+XVII.Hecho  de  tránsito,  evento  producido  por  el  tránsito  vehicular,  en  el  que  interviene  por  lo  menos  un  vehículo, causando daños materiales, lesiones y/o muerte de personas;
+XVIII. Infracción, conducta que transgrede alguna disposición del presente reglamento o demás disposiciones de tránsito aplicables y que tiene como consecuencia una sanción;
+XIX. Intersección,  nodo  donde  convergen  dos  o  más  vías,  en  la  que  se  realizan  los  movimientos direccionales  del tránsito peatonal o vehicular de forma directa o canalizada por islas;
+XX. Juez Cívico, los Jueces Cívicos adscritos a la Consejería Jurídica y de Servicios Legales;
+XXI. Ley, la Ley de Movilidad del Distrito Federal;
+XXII.Motocicleta,  vehículo  motorizado  que  utiliza  m
+anubrio  para  su  conducción,  de  una  o  más  plazas,  con  dos  o  más ruedas, que está equipado con motor eléctrico, de combustión interna de dos o cuatro tiempos, con un cilindraje a partir  de  cuarenta  y  nueve  centímetros  cúbicos  de  desplazamiento  o  impulsado  por  cualquier  otra  fuerza  motriz, que cumpla con las disposiciones estipuladas en la Norma Oficial Mexicana en materia de identificación vehicular;
+XXIII. Motociclista, persona que conduce una motocicleta;
+XXIV. Peatón, persona que transita por la vía a pie  y/o que uti
+liza ayudas técnicas por su condición de discapacidad o 
+movilidad  limitada,  así  como  en  patines,  patineta  u  otros  vehículos  recreativos;  incluye  a  niños  menores  de  doce 
+años a bordo de un vehículo no motorizado;
+XXV.
+Personal  de  apoyo  vial
+,  elemento  de  la  Secr
+etaría  responsable  de  brindar  información  vial,  prestar  apoyo  a 
+peatones  y  conductores  de  vehículos,  así  como  promover  la  cultura  vial  y  auxiliar  en  contingencias  causadas  por 
+hechos de tránsito o eventos públicos masivos;
+XXVI.
+Persona   con  discapacidad
+, 
+aquell
+as  personas  que   tengan   deficiencias   físicas,   mentales,   intelectuales,   o 
+sensoriales a largo plazo que al interactuar con diversas barreras, puedan impedir su participación plena y efectiva 
+en la sociedad, en igualdad de condiciones con las demás
+l;
+XXVII.
+Persona
+s  con  movilidad  limitada,
+personas  que  de  forma  temporal  o  permanente,  debido  a  enfermedad,  edad, 
+accidente  o  alguna  otra  condición,  realizan  un  desplazamiento  lento,  difícil  o  desequilibrado.  Incluye  a  niños, 
+mujeres  en  periodo  de  gestación,  adultos  mayor
+es,  adultos  que  transitan  con  niños  pequeños,  personas  con 
+discapacidad, personas con equipaje o paquetes;                                                                                </t>
   </si>
 </sst>
 </file>
@@ -493,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +583,7 @@
     <col min="10" max="10" width="28.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="58.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="162.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="11.42578125" style="1"/>
@@ -523,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
@@ -549,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
@@ -558,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
@@ -576,14 +650,14 @@
         <v>6</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2)</f>
         <v>if (lastUserMessage === '¿Como te llamas? || lastUserMessage == 'Nombre) || lastUserMessage == 'Nombre') || lastUserMessage == 'Nombre') {        botMessage = 'Mi nombre es '; }</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,96 +671,109 @@
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="O3" s="1" t="str">
         <f t="shared" ref="O3:O66" si="0">CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3)</f>
-        <v>if (lastUserMessage === '¿Qué dice el artículo 1? || lastUserMessage == 'Artículo 1) || lastUserMessage == 'articulo 1')'|| lastUserMessage == '¿que dice el articulo 1?') {        botMessage = 'El presente reglamento tiene por objeto regular la circulación de peatones y vehículos en la vía pública y la seguridad vial en la Ciudad de México. Las disposiciones de este reglamento son aplicables a peatones, conductores, pasajeros y propietarios de cualquier tipo de vehículo matriculado en el país o el extranjero y que circule en el territorio dela Ciudad de México. En el presente ordenamiento se establecen las normas respecto a sus movimientos y estacionamiento, en observancia a lo establecido en las leyes, reglamentos, acuerdos, decretos y normatividad local vigente, así como las maniobras de ascenso y descenso de pasajeros o de carga y descarga. De igual forma, determina las condiciones legales y de seguridad a las que se deben ajustar los vehículos y sus conductores para su circulación. En todo lo no previsto en el presente ordenamiento, se aplicará de manera supletoria las disposiciones contenidas en la Ley de Movilidad del Distrito Federal, en la Ley de Cultura Cívica del Distrito Federal y en los programas ambientales y de seguridad vial. V. Todos los usuarios de la vía, que son los enlistados en la fracción anterior, y en especial los conductores de todo tipo de
-vehículos motorizados, deben responsabilizarse del riesgo que implican para los demás usuarios de la vía, por lo que su
+        <v>if (lastUserMessage === '¿Qué dice el artículo 1? || lastUserMessage == 'Artículo 1) || lastUserMessage == 'articulo 1')'|| lastUserMessage == '¿que dice el articulo 1?') {        botMessage = 'El  presente  reglamento  tiene  por  objeto  regular  la  circulación  de peatones  y vehículos  en  la  vía  pública  y  la seguridad vial en la Ciudad de México.
+Las disposiciones de  este reglamento son aplicables a  peatones,  conductores,  pasajeros  y  propietarios de  cualquier tipo de vehículo  matriculado  en  el  país  o  el  extranjero  y  que  circule  en  el  territorio  dela  Ciudad  de  México.    En  el  presente 
+ordenamiento se establecen las normas respecto a sus movimientos y estacionamiento, en observancia a lo establecido en las  leyes,  reglamentos,  acuerdos,  decretos  y  normatividad  local  vigente,  así  como  las  maniobras  de  ascenso  y  descenso  de pasajeros o de carga y descarga. De igual forma, determina las condiciones legales y de seguridad a las que se deben ajustar los vehículos y sus conductores para su circulación.
+En todo lo no previsto en el presente ordenamiento, se aplicará de manera supletoria las disposiciones contenidas en la Ley de  Movilidad  del  Distrito  Federal,  en  la  Ley  de  Cultura  Cívica  del  Distrito  Federal  y  en  los  programas  ambientales  y  de 
+seguridad vial.'; }</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if (lastUserMessage === '¿Qué dice el artículo 2? || lastUserMessage == 'Artículo 2) || lastUserMessage == 'articulo 2') || lastUserMessage == '¿que dice el articulo 2?') {        botMessage = ' La aplicación de este reglamento estará basada en los siguientes principios rectores:
+I.- La  circulación  en  condiciones  de  seguridad  vial  es  un  derecho,  por  lo  que  todas  las  autoridades  en  el  ámbito  de  su competencia deben adoptar medidas para garantizar la protección de la vida e integridad física de las personas, sobre todo de los usuarios vulnerables de la vía;
+II.  La  circulación  en  la  vía  pública  debe  efectuarse  con  cortesía,  por  lo  que  los  ciudadanos  deben
+observar  un  trato respetuoso hacia el resto de los usuarios de la vía, así como a los agentes y personal de apoyo vial; 
+III. Se evitará la colocación de objetos que representen un obstáculo a la circulación de vehículos y tránsito de peatones;
+IV. Se dará prioridad en la utilización del espacio vial de acuerdo a la siguiente jerarquía:
+a)Peatones; en especial personas con discapacidad y movilidad limitada
+b)Ciclistas;
+c)Usuarios del servicio de transporte público de pasajeros;
+d)Prestadores del servicio de transporte público de pasajeros;
+e)Prestadores del servicio de transporte de carga y distribución de mercancías; y
+f)Usuarios de transporte particular automotor y motociclistas.     V. Todos los usuarios de la vía, que son los enlistados en la fracción anterior, y en especial los conductores de todo tipo de 
+vehículos  motorizados,  deben  responsabilizarse  del  riesgo  que  implican  para  los  demás  usuarios  de  la  vía,  por  lo  que  su 
 conducción se realizará de manera precautoria y respetando las disposiciones del presente Reglamento; y
-VI. El uso del automóvil particular deberá ser de manera racional, con el objetivo de mejorar las condiciones de salud y
-protección del ambiente.
-Estos principios deben ser difundidos por autoridades y promotores voluntarios de forma permanente a través de campañas,
-programas y cursos.
-La Secretaría en coordinación con Seguridad Pública, diseñará y llevará a cabo campañas permanentes de cultura de
-movilidad y seguridad vial que garanticen la concientización y respeto a la seguridad de todos los usuarios de la vía, del
-mismo modo, se realizarán acciones para inhibir el consumo de alcohol, narcóticos, estupefacientes o psicotrópicos al
-conducir.'; }</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>if (lastUserMessage === '¿Qué dice el artículo 2? || lastUserMessage == 'Artículo 2) || lastUserMessage == 'articulo 2') || lastUserMessage == '¿que dice el articulo 2?') {        botMessage = ' ; }</v>
+VI.  El  uso  del  automóvil  particular  deberá  ser  de  manera  racional,  con  el  objetivo  de  mejorar  las  condiciones  de  salud  y protección del ambiente.
+Estos principios deben ser difundidos por autoridades y promotores voluntarios de forma permanente a través de campañas, programas y cursos.
+La  Secretaría  en  coordinación  con  Seguridad  Pública,  diseñará  y  llevará  a  cabo  campañas  permanentes  de  cultura  de 
+movilidad  y  seguridad  vial  que  garanticen  la  concientización  y  respeto  a  la  seguridad  de  todos  los  usuarios  de  la  vía,  del 
+mismo  modo,  se  realizarán  acciones  para  inhibir  el  consumo  de  alcohol,  narcóticos,  estupefacientes  o  psicotrópicos    al 
+conducir.; }</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -694,89 +781,150 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if (lastUserMessage === '¿Qué dice el artículo 3? || lastUserMessage == 'Artículo 3) || lastUserMessage == 'articulo 3') || lastUserMessage == '¿que dice el articulo 3?') {        botMessage = 'En  el  ámbito  de  sus  atribuciones,  son  autoridades  competentes  para  la  aplicación  del  presente  reglamento  la Secretaría, Seguridad Pública y los Jueces Cívicos.; }</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>if (lastUserMessage === '¿Qué dice el artículo 3? || lastUserMessage == 'Artículo 3) || lastUserMessage == 'articulo 3') || lastUserMessage == '¿que dice el articulo 3?') {        botMessage = '; }</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="M6" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="N6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>if (lastUserMessage === '¿Qué dice el artículo 4? || lastUserMessage == 'Artículo 4) || lastUserMessage == 'articulo 4') || lastUserMessage == '¿que dice el articulo 4?') {        botMessage = '; }</v>
+        <v>if (lastUserMessage === '¿Qué dice el artículo 4? || lastUserMessage == 'Artículo 4) || lastUserMessage == 'articulo 4') || lastUserMessage == '¿que dice el articulo 4?') {        botMessage = 'Además de lo que señala la Ley y sus reglamentos, para los efectos de este Reglamento, se entiende por:
+I.Agente, elemento de la Policía del Distrito Federal con funciones para el control de tránsito;
+II.Amonestación verbal, acto por el  cual  el agente  advierte  a los peatones, conductores  y  pasajeros de  un  vehículo sobre  el  incumplimiento  cometido  a  las  disposiciones  de  este  reglamento  y  tiene  como  propósito  orientarlos  a conducirse de conformidad con lo establecido en el mismo y prevenir la realización de otras conductas similares;
+III.Área de espera para bicicletas y motocicletas, zona marcada sobre el pavimento en una intersección de vías que tengan  semáforos,  que  permite  a  los  conductores  de  estos  vehículos  aguardar  la  luz  verde  del  semáforo  en  una posición adelantada, de tal forma que sean visibles a los conductores del resto de los vehículos;
+IV.Ayudas técnicas, dispositivos tecnológicos y materiales que permiten habilitar, rehabilitar o compensar una o más 
+limitaciones funcionales, motrices, sensoriales o intelectuales de las Personas con Discapacidad. 
+V.Bicicleta, Vehículo no motorizado de propulsión humana a través de pedales;
+VI.Boleta, documento en donde se hace constar la 
+infracción y la sanción correspondiente; VII.
+Carril, espacio asignado para la circulación de vehículos, ubicado sobre la superficie de rodadura y delimitado por  
+líneas continuas o discontinuas, el cual debe contar con el ancho suficiente para la circulación de vehículos en una 
+fila;
+VIII. Carril confinado, superficie de rodadura con dispositivos de delimitación en su perímetro para el uso preferente o exclusivo de servicios de transporte, así como de cierto tipo de vehículos;
+IX.Ciclista, conductor de un vehículo de tracción humana a través de pedales; se considera también ciclista a aquellos que conducen bicicletas asistidas por motores eléctricos, siempre y cuando ésta desarrolle velocidades de hasta 25 kilómetros por hora; los menores de doce años a bordo de un vehículo no motorizado serán considerados peatones; 
+X.Circulación, desplazamiento por la vía pública de peatones, conductores y ocupantes de vehículos.
+XI. Conductor, toda persona que maneje un vehículo en cualquiera de sus modalidades;
+XII. Cruce  peatonal, área  sobre  el  arroyo  vehicular  asignada  para  el  tránsito  de  peatones,  puede estar  a  nivel  de  la acera o superficie de rodadura;                        XIII. Dispositivos  para  el  control  del  tránsito,  conjunto  de  elementos  que  ordenan  y  orientan  los  movimientos  de tránsito de personas y circulación de vehículos; que previenen y proporcionan información a los usuarios de la vía para garantizar su seguridad, permitiendo una operación efectiva del flujo peatonal y vehicular;
+XIV. Elemento de Seguridad Pública, miembro de la policía preventiva o complementaria;
+XV.Espacios  para  servicios  especiales,  son  todos  aquellos  sitios  en  la  vía  pública  debidamente  autorizados  por  la Secretaría,  exclusivos  para  realizar  maniobras  de  ascenso  y  descenso  de  pasajeros  o  para  como  áreas  reservadas para  personas  con  discapacidad,  servicio  de  acomodadores,  bicicletas  y  motocicletas,  sitios  y  lanzaderas  de transporte público, áreas para carga y descarga, transporte de valores, correos, mensajería, mensajería y paquetería, 
+recolección de residuos sólidos, vehículos
+de emergencia, y los que se señalen por la Secretaria;
+XVI. Formato  de  hecho  de  tránsito,  cédula  en  la  que  se  establecen  las  circunstancias  de  tiempo,  lugar  y  modo  de incidentes  viales,  en  la  cual  el  agente  o  elemento  de  Seguridad  Pública  registra:  fecha,  hora,  lugar;  datos  de  las personas y vehículos involucrados, en su caso, número de lesionados o fallecidos; servicios de  emergencia y en su caso,  del  Ministerio  Publico;  y  cualquier  otro  dato  que  sea  necesario  para  determinar  las  características  del incidente y responsabilidad de quienes hayan intervenido en el hecho. 
+XVII.Hecho  de  tránsito,  evento  producido  por  el  tránsito  vehicular,  en  el  que  interviene  por  lo  menos  un  vehículo, causando daños materiales, lesiones y/o muerte de personas;
+XVIII. Infracción, conducta que transgrede alguna disposición del presente reglamento o demás disposiciones de tránsito aplicables y que tiene como consecuencia una sanción;
+XIX. Intersección,  nodo  donde  convergen  dos  o  más  vías,  en  la  que  se  realizan  los  movimientos direccionales  del tránsito peatonal o vehicular de forma directa o canalizada por islas;
+XX. Juez Cívico, los Jueces Cívicos adscritos a la Consejería Jurídica y de Servicios Legales;
+XXI. Ley, la Ley de Movilidad del Distrito Federal;
+XXII.Motocicleta,  vehículo  motorizado  que  utiliza  m
+anubrio  para  su  conducción,  de  una  o  más  plazas,  con  dos  o  más ruedas, que está equipado con motor eléctrico, de combustión interna de dos o cuatro tiempos, con un cilindraje a partir  de  cuarenta  y  nueve  centímetros  cúbicos  de  desplazamiento  o  impulsado  por  cualquier  otra  fuerza  motriz, que cumpla con las disposiciones estipuladas en la Norma Oficial Mexicana en materia de identificación vehicular;
+XXIII. Motociclista, persona que conduce una motocicleta;
+XXIV. Peatón, persona que transita por la vía a pie  y/o que uti
+liza ayudas técnicas por su condición de discapacidad o 
+movilidad  limitada,  así  como  en  patines,  patineta  u  otros  vehículos  recreativos;  incluye  a  niños  menores  de  doce 
+años a bordo de un vehículo no motorizado;
+XXV.
+Personal  de  apoyo  vial
+,  elemento  de  la  Secr
+etaría  responsable  de  brindar  información  vial,  prestar  apoyo  a 
+peatones  y  conductores  de  vehículos,  así  como  promover  la  cultura  vial  y  auxiliar  en  contingencias  causadas  por 
+hechos de tránsito o eventos públicos masivos;
+XXVI.
+Persona   con  discapacidad
+, 
+aquell
+as  personas  que   tengan   deficiencias   físicas,   mentales,   intelectuales,   o 
+sensoriales a largo plazo que al interactuar con diversas barreras, puedan impedir su participación plena y efectiva 
+en la sociedad, en igualdad de condiciones con las demás
+l;
+XXVII.
+Persona
+s  con  movilidad  limitada,
+personas  que  de  forma  temporal  o  permanente,  debido  a  enfermedad,  edad, 
+accidente  o  alguna  otra  condición,  realizan  un  desplazamiento  lento,  difícil  o  desequilibrado.  Incluye  a  niños, 
+mujeres  en  periodo  de  gestación,  adultos  mayor
+es,  adultos  que  transitan  con  niños  pequeños,  personas  con 
+discapacidad, personas con equipaje o paquetes;                                                                                ; }</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -784,31 +932,31 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>4</v>
@@ -821,7 +969,7 @@
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>if (lastUserMessage === '¿Qué dice el artículo 5? || lastUserMessage == 'Artículo 5) || lastUserMessage == 'articulo 5') || lastUserMessage == '¿que dice el ariculo 5?') {        botMessage = '; }</v>
+        <v>if (lastUserMessage === '¿Qué dice el artículo 5? || lastUserMessage == 'Artículo 5) || lastUserMessage == 'articulo 5') || lastUserMessage == '¿que dice el articulo 5?') {        botMessage = '; }</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -832,13 +980,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>2</v>
@@ -865,13 +1013,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>2</v>
@@ -898,13 +1046,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>2</v>
@@ -931,13 +1079,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>2</v>
@@ -964,13 +1112,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>2</v>
@@ -997,13 +1145,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>2</v>
@@ -1030,13 +1178,13 @@
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>2</v>
@@ -1063,13 +1211,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>2</v>
@@ -1096,13 +1244,13 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>2</v>
@@ -1129,13 +1277,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>2</v>
@@ -1162,13 +1310,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>2</v>
@@ -1195,13 +1343,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>2</v>
@@ -1228,13 +1376,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>2</v>
@@ -1261,13 +1409,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>2</v>
@@ -1294,13 +1442,13 @@
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>2</v>
@@ -1327,13 +1475,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>2</v>
@@ -1360,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>2</v>
@@ -1393,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>2</v>
@@ -1426,13 +1574,13 @@
         <v>2</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>2</v>
@@ -1459,13 +1607,13 @@
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>2</v>
@@ -1492,13 +1640,13 @@
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>2</v>
@@ -1525,13 +1673,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>2</v>
@@ -1558,13 +1706,13 @@
         <v>2</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>2</v>
@@ -1591,13 +1739,13 @@
         <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>2</v>
@@ -1624,13 +1772,13 @@
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>2</v>
@@ -1657,13 +1805,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>2</v>
@@ -1690,13 +1838,13 @@
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>2</v>
@@ -1723,13 +1871,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>2</v>
@@ -1756,13 +1904,13 @@
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>2</v>
@@ -1789,13 +1937,13 @@
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>2</v>
@@ -1822,13 +1970,13 @@
         <v>2</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>2</v>
@@ -1855,13 +2003,13 @@
         <v>2</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>2</v>
@@ -1888,13 +2036,13 @@
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>2</v>
@@ -1921,13 +2069,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>2</v>
@@ -1954,13 +2102,13 @@
         <v>2</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>2</v>
@@ -1987,13 +2135,13 @@
         <v>2</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>2</v>
@@ -2020,13 +2168,13 @@
         <v>2</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>2</v>
@@ -2053,13 +2201,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>2</v>
@@ -2086,13 +2234,13 @@
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>2</v>
@@ -2119,13 +2267,13 @@
         <v>2</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>2</v>
@@ -2152,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>2</v>
@@ -2185,13 +2333,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>2</v>
@@ -2218,13 +2366,13 @@
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>2</v>
@@ -2251,13 +2399,13 @@
         <v>2</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>2</v>
@@ -2284,13 +2432,13 @@
         <v>2</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>2</v>
@@ -2317,13 +2465,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>2</v>
@@ -2350,13 +2498,13 @@
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>2</v>
@@ -2383,13 +2531,13 @@
         <v>2</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>2</v>
@@ -2416,13 +2564,13 @@
         <v>2</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>2</v>
@@ -2449,13 +2597,13 @@
         <v>2</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>2</v>
@@ -2482,13 +2630,13 @@
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>2</v>
@@ -2515,13 +2663,13 @@
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>2</v>
@@ -2548,13 +2696,13 @@
         <v>2</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>2</v>
@@ -2581,13 +2729,13 @@
         <v>2</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>2</v>
@@ -2614,13 +2762,13 @@
         <v>2</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>2</v>
@@ -2647,13 +2795,13 @@
         <v>2</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>2</v>
@@ -2680,13 +2828,13 @@
         <v>2</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>2</v>
@@ -2713,13 +2861,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>2</v>
@@ -2746,13 +2894,13 @@
         <v>2</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>2</v>
@@ -2779,13 +2927,13 @@
         <v>2</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>2</v>
@@ -2812,13 +2960,13 @@
         <v>2</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>2</v>
@@ -2845,13 +2993,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>2</v>
@@ -2878,13 +3026,13 @@
         <v>2</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>2</v>
@@ -2911,13 +3059,13 @@
         <v>2</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>2</v>
@@ -2944,13 +3092,13 @@
         <v>2</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>2</v>
@@ -2977,13 +3125,13 @@
         <v>2</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>2</v>
@@ -3010,13 +3158,13 @@
         <v>2</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>2</v>
@@ -3043,13 +3191,13 @@
         <v>2</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>2</v>
@@ -3076,13 +3224,13 @@
         <v>2</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>2</v>
@@ -3109,13 +3257,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>2</v>
@@ -3142,13 +3290,13 @@
         <v>2</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>2</v>
@@ -3175,13 +3323,13 @@
         <v>2</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>2</v>
@@ -3208,13 +3356,13 @@
         <v>2</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>2</v>
@@ -3241,13 +3389,13 @@
         <v>2</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>2</v>
@@ -3274,13 +3422,13 @@
         <v>2</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>2</v>
@@ -3307,13 +3455,13 @@
         <v>2</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>2</v>
@@ -3340,13 +3488,13 @@
         <v>2</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>2</v>
@@ -3373,13 +3521,13 @@
         <v>2</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>2</v>
@@ -3406,13 +3554,13 @@
         <v>2</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>2</v>
@@ -3439,13 +3587,13 @@
         <v>2</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>2</v>
@@ -3472,13 +3620,13 @@
         <v>2</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>2</v>
@@ -3505,13 +3653,13 @@
         <v>2</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>2</v>
@@ -3538,13 +3686,13 @@
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>2</v>
@@ -3571,13 +3719,13 @@
         <v>2</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>2</v>
@@ -3604,13 +3752,13 @@
         <v>2</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>2</v>
@@ -3637,13 +3785,13 @@
         <v>2</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>2</v>
@@ -3670,13 +3818,13 @@
         <v>2</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>2</v>
@@ -3703,13 +3851,13 @@
         <v>2</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>2</v>
@@ -3736,13 +3884,13 @@
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>2</v>
@@ -3769,13 +3917,13 @@
         <v>2</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>2</v>
@@ -3802,13 +3950,13 @@
         <v>2</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>2</v>
@@ -3835,13 +3983,13 @@
         <v>2</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>2</v>
@@ -3868,13 +4016,13 @@
         <v>2</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>2</v>

--- a/chatBot/datosChatBoot.xlsx
+++ b/chatBot/datosChatBoot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bengie\Documents\GitHub\Tematico-III\chatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{979E944B-E50F-499B-93BC-8E2DFB4C4C9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08157EEA-9022-4E85-8DC3-B29883AB94C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="43">
   <si>
     <t>if (lastUserMessage === '</t>
   </si>
@@ -173,7 +173,10 @@
     <t>En  el  ámbito  de  sus  atribuciones,  son  autoridades  competentes  para  la  aplicación  del  presente  reglamento  la Secretaría, Seguridad Pública y los Jueces Cívicos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Además de lo que señala la Ley y sus reglamentos, para los efectos de este Reglamento, se entiende por:
+    <t>=CONCATENAR(A6,B6,C6,D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6)P6</t>
+  </si>
+  <si>
+    <t>Además de lo que señala la Ley y sus reglamentos, para los efectos de este Reglamento, se entiende por:
 I.Agente, elemento de la Policía del Distrito Federal con funciones para el control de tránsito;
 II.Amonestación verbal, acto por el  cual  el agente  advierte  a los peatones, conductores  y  pasajeros de  un  vehículo sobre  el  incumplimiento  cometido  a  las  disposiciones  de  este  reglamento  y  tiene  como  propósito  orientarlos  a conducirse de conformidad con lo establecido en el mismo y prevenir la realización de otras conductas similares;
 III.Área de espera para bicicletas y motocicletas, zona marcada sobre el pavimento en una intersección de vías que tengan  semáforos,  que  permite  a  los  conductores  de  estos  vehículos  aguardar  la  luz  verde  del  semáforo  en  una posición adelantada, de tal forma que sean visibles a los conductores del resto de los vehículos;
@@ -191,52 +194,181 @@
 XI. Conductor, toda persona que maneje un vehículo en cualquiera de sus modalidades;
 XII. Cruce  peatonal, área  sobre  el  arroyo  vehicular  asignada  para  el  tránsito  de  peatones,  puede estar  a  nivel  de  la acera o superficie de rodadura;                        XIII. Dispositivos  para  el  control  del  tránsito,  conjunto  de  elementos  que  ordenan  y  orientan  los  movimientos  de tránsito de personas y circulación de vehículos; que previenen y proporcionan información a los usuarios de la vía para garantizar su seguridad, permitiendo una operación efectiva del flujo peatonal y vehicular;
 XIV. Elemento de Seguridad Pública, miembro de la policía preventiva o complementaria;
-XV.Espacios  para  servicios  especiales,  son  todos  aquellos  sitios  en  la  vía  pública  debidamente  autorizados  por  la Secretaría,  exclusivos  para  realizar  maniobras  de  ascenso  y  descenso  de  pasajeros  o  para  como  áreas  reservadas para  personas  con  discapacidad,  servicio  de  acomodadores,  bicicletas  y  motocicletas,  sitios  y  lanzaderas  de transporte público, áreas para carga y descarga, transporte de valores, correos, mensajería, mensajería y paquetería, 
-recolección de residuos sólidos, vehículos
-de emergencia, y los que se señalen por la Secretaria;
+XV.Espacios  para  servicios  especiales,  son  todos  aquellos  sitios  en  la  vía  pública  debidamente  autorizados  por  la Secretaría,  exclusivos  para  realizar  maniobras  de  ascenso  y  descenso  de  pasajeros  o  para  como  áreas  reservadas para  personas  con  discapacidad,  servicio  de  acomodadores,  bicicletas  y  motocicletas,  sitios  y  lanzaderas  de transporte público, áreas para carga y descarga, transporte de valores, correos, mensajería, mensajería y paquetería, recolección de residuos sólidos, vehículos de emergencia, y los que se señalen por la Secretaria;
 XVI. Formato  de  hecho  de  tránsito,  cédula  en  la  que  se  establecen  las  circunstancias  de  tiempo,  lugar  y  modo  de incidentes  viales,  en  la  cual  el  agente  o  elemento  de  Seguridad  Pública  registra:  fecha,  hora,  lugar;  datos  de  las personas y vehículos involucrados, en su caso, número de lesionados o fallecidos; servicios de  emergencia y en su caso,  del  Ministerio  Publico;  y  cualquier  otro  dato  que  sea  necesario  para  determinar  las  características  del incidente y responsabilidad de quienes hayan intervenido en el hecho. 
 XVII.Hecho  de  tránsito,  evento  producido  por  el  tránsito  vehicular,  en  el  que  interviene  por  lo  menos  un  vehículo, causando daños materiales, lesiones y/o muerte de personas;
 XVIII. Infracción, conducta que transgrede alguna disposición del presente reglamento o demás disposiciones de tránsito aplicables y que tiene como consecuencia una sanción;
 XIX. Intersección,  nodo  donde  convergen  dos  o  más  vías,  en  la  que  se  realizan  los  movimientos direccionales  del tránsito peatonal o vehicular de forma directa o canalizada por islas;
 XX. Juez Cívico, los Jueces Cívicos adscritos a la Consejería Jurídica y de Servicios Legales;
 XXI. Ley, la Ley de Movilidad del Distrito Federal;
-XXII.Motocicleta,  vehículo  motorizado  que  utiliza  m
-anubrio  para  su  conducción,  de  una  o  más  plazas,  con  dos  o  más ruedas, que está equipado con motor eléctrico, de combustión interna de dos o cuatro tiempos, con un cilindraje a partir  de  cuarenta  y  nueve  centímetros  cúbicos  de  desplazamiento  o  impulsado  por  cualquier  otra  fuerza  motriz, que cumpla con las disposiciones estipuladas en la Norma Oficial Mexicana en materia de identificación vehicular;
+XXII.Motocicleta,  vehículo  motorizado  que  utiliza  manubrio  para  su  conducción,  de  una  o  más  plazas,  con  dos  o  más ruedas, que está equipado con motor eléctrico, de combustión interna de dos o cuatro tiempos, con un cilindraje a partir  de  cuarenta  y  nueve  centímetros  cúbicos  de  desplazamiento  o  impulsado  por  cualquier  otra  fuerza  motriz, que cumpla con las disposiciones estipuladas en la Norma Oficial Mexicana en materia de identificación vehicular;
 XXIII. Motociclista, persona que conduce una motocicleta;
-XXIV. Peatón, persona que transita por la vía a pie  y/o que uti
-liza ayudas técnicas por su condición de discapacidad o 
-movilidad  limitada,  así  como  en  patines,  patineta  u  otros  vehículos  recreativos;  incluye  a  niños  menores  de  doce 
-años a bordo de un vehículo no motorizado;
-XXV.
-Personal  de  apoyo  vial
-,  elemento  de  la  Secr
-etaría  responsable  de  brindar  información  vial,  prestar  apoyo  a 
-peatones  y  conductores  de  vehículos,  así  como  promover  la  cultura  vial  y  auxiliar  en  contingencias  causadas  por 
-hechos de tránsito o eventos públicos masivos;
-XXVI.
-Persona   con  discapacidad
-, 
-aquell
-as  personas  que   tengan   deficiencias   físicas,   mentales,   intelectuales,   o 
-sensoriales a largo plazo que al interactuar con diversas barreras, puedan impedir su participación plena y efectiva 
+XXIV. Peatón, persona que transita por la vía a pie  y/o que utiliza ayudas técnicas por su condición de discapacidad o 
+movilidad  limitada,  así  como  en  patines,  patineta  u  otros  vehículos  recreativos;  incluye  a  niños  menores  de  doce años a bordo de un vehículo no motorizado;
+XXV. Personal  de  apoyo  vial,  elemento  de  la  Secr
+etaría  responsable  de  brindar  información  vial,  prestar  apoyo  a peatones  y  conductores  de  vehículos,  así  como  promover  la  cultura  vial  y  auxiliar  en  contingencias causadas  por hechos de tránsito o eventos públicos masivos;
+XXVI. Persona   con  discapacidad, aquellas  personas  que   tengan   deficiencias   físicas,   mentales,   intelectuales,   o sensoriales a largo plazo que al interactuar con diversas barreras, puedan impedir su participación plena y efectiva 
 en la sociedad, en igualdad de condiciones con las demás
 l;
-XXVII.
-Persona
-s  con  movilidad  limitada,
-personas  que  de  forma  temporal  o  permanente,  debido  a  enfermedad,  edad, 
-accidente  o  alguna  otra  condición,  realizan  un  desplazamiento  lento,  difícil  o  desequilibrado.  Incluye  a  niños, 
-mujeres  en  periodo  de  gestación,  adultos  mayor
-es,  adultos  que  transitan  con  niños  pequeños,  personas  con 
-discapacidad, personas con equipaje o paquetes;                                                                                </t>
+XXVII.Personas  con  movilidad  limitada, personas  que  de  forma  temporal  o  permanente,  debido  a  enfermedad,  edad, accidente  o  alguna  otra  condición,  realizan  un  desplazamiento  lento,  difícil  o  desequilibrado.  Incluye  a  niños, mujeres  en  periodo  de  gestación,  adultos  mayor es,  adultos  que  transitan  con  niños  pequeños,  personas  con discapacidad, personas con equipaje o paquetes;                                                                          XIII.
+Dispositivos  para  el  control  del  tránsito,  conjunto  de  elementos  que  ordenan  y  orientan  los  movimientos  de 
+tránsito de person
+as y circulación de vehículos; que previenen y proporcionan información a los usuarios de la vía 
+para garantizar su seguridad, permitiendo una operación efectiva del flujo peatonal y vehicular;
+XIV.
+Elemento de Seguridad Pública, 
+miembro de la policía preventi
+va o complementaria;
+XV.
+Espacios  para  servicios  especiales
+,  son  todos  aquellos  sitios  en  la  vía  pública  debidamente  autorizados  por  la 
+Secretaría,  exclusivos  para  realizar  maniobras  de  ascenso  y  descenso  de  pasajeros  o  para  como  áreas  reservadas 
+para  persona
+s  con  discapacidad,  servicio  de  acomodadores,  bicicletas  y  motocicletas,  sitios  y  lanzaderas  de 
+transporte público, áreas para carga y descarga, transporte de valores, correos, mensajería, mensajería y paquetería, 
+recolección de residuos sólidos, vehículos
+de emergencia, y los que se señalen por la Secretaria;
+XVI.
+Formato  de  hecho  de  tránsito
+,  cédula  en  la  que  se  establecen  las  circunstancias  de  tiempo,  lugar  y  modo  de 
+incidentes  viales,  en  la  cual  el  agente  o  elemento  de  Seguridad  Pública  registra:  fecha,  hor
+a,  lugar;  datos  de  las 
+personas y vehículos involucrados, en su caso, número de lesionados o fallecidos; servicios de  emergencia y en su 
+caso,  del  Ministerio  Publico;  y  cualquier  otro  dato  que  sea  necesario  para  determinar  las  características  del 
+incident
+e y responsabilidad de quienes hayan intervenido en el hecho
+. 
+XVII.
+Hecho  de  tránsito
+,  evento  producido  por  el  tránsito  vehicular,  en  el  que  interviene  por  lo  menos  un  vehículo, 
+causando daños materiales, lesiones y/o muerte de personas;
+XVIII.
+Infracción
+, conducta 
+que transgrede alguna disposición del presente reglamento o demás disposiciones de tránsito 
+aplicables y que tiene como consecuencia una sanción;
+XIX.
+Intersección
+,  nodo  donde  convergen  dos  o  más  vías,  en  la  que  se  realizan  los  movimientos  direccionales  del 
+tr
+ánsito peatonal o vehicular de forma directa o canalizada por islas;
+XX.
+Juez Cívico, 
+los Jueces Cívicos adscritos a la Consejería Jurídica y de Servicios Legales;
+XXI.
+Ley
+, la Ley de Movilidad del Distrito Federal;
+XXII.
+Motocicleta
+,  vehículo  motorizado  que  utiliza  m
+anubrio  para  su  conducción,  de  una  o  más  plazas,  con  dos  o  más 
+ruedas, que está equipado con motor eléctrico, de combustión interna de dos o cuatro tiempos, con un cilindraje a partir  de  cuarenta  y  nueve  centímetros  cúbicos  de  desplazamiento  o  impulsado  por  cualquier  otra  fuerza  motriz, que cumpla con las disposiciones estipuladas en la Norma Oficial Mexicana en materia de identificación vehicular;
+XXIII.Motociclista, persona que conduce una motocicleta;
+XXIV.Peatón, persona que transita por la vía a pie  y/o que utiliza ayudas técnicas por su condición de discapacidad o 
+movilidad  limitada,  así  como  en  patines,  patineta  u  otros  vehículos  recreativos;  incluye  a  niños  menores  de  doce años a bordo de un vehículo no motorizado;
+XXV.Personal  de  apoyo  vial,  elemento  de  la  Secretaría  responsable  de  brindar  información  vial,  prestar  apoyo  a peatones  y  conductores  de  vehículos,  así  como  promover  la  cultura  vial  y  auxiliar  en  contingencias  causadas  por hechos de tránsito o eventos públicos masivos;
+XXVI.Persona   con  discapacidad, aquellas  personas  que   tengan   deficiencias   físicas,   mentales,   intelectuales,   o sensoriales a largo plazo que al interactuar con diversas barreras, puedan impedir su participación plena y efectiva 
+en la sociedad, en igualdad de condiciones con las demás
+l;
+XXVII. Personas  con  movilidad  limitada, personas  que  de  forma  temporal  o  permanente,  debido  a  enfermedad,  edad, accidente  o  alguna  otra  condición,  realizan  un  desplazamiento  lento,  difícil  o  desequilibrado.  Incluye  a  niños, mujeres  en  periodo  de  gestación,  adultos  mayores,  adultos  que  transitan  con  niños  pequeños,  personas  con discapacidad, personas con equipaje o paquetes; XXVIII.
+Preferencia de paso
+, ventaja que se le otorga a alguno de los usuarios de la vía para que realice un movimiento 
+en el punto donde convergen flujos
+de circulación;
+XXIX.
+Prioridad de uso
+, ventaja que se le otorga a alguno de los usuarios de la vía para la utilización de un espacio de 
+circulación; los otros vehículos tendrán que  ceder el  paso y circular detrás del  usuario con prioridad o en su caso 
+cambiar
+de carril;
+XXX.
+Programa de Verificación Vehicular,
+el Programa de Verificación Vehicular Obligatoria para el Distrito Federal 
+vigente;
+XXXI.
+Programa Hoy no Circula,
+el Programa Hoy no Circula para el Distrito Federal vigente;
+XXXII.
+Programa  para  Contingencias  Ambie
+ntales  Atmosféricas
+,  el  Programa  para  Contingencias  Ambientales 
+Atmosféricas en el Distrito Federal vigente;
+XXXIII.
+Programa conduce sin alcohol, 
+el Programa de Control y Prevención de Ingestión de Alcohol en conductores de 
+vehículos en el Distrito Federal;
+XXXIV.
+P
+romotor  voluntario
+,  ciudadano  capacitado  por  la  Secretaría  o  Seguridad  Pública  que  colabora  a  regular  el 
+tránsito en las inmediaciones de centros educativos para garantizar la seguridad vial de los escolares, zonas de obra 
+o cruces conflictivos;
+XXXV.
+Reglament
+o
+, el Reglamento de Tránsito del Distrito Federal;
+XXXVI.
+Secretaría
+, la Secretaría de Movilidad del Distrito Federal;
+XXXVII.
+Secretaría de Obras
+, la Secretaría de Obras y Servicios del Distrito Federal;
+XXXVIII.
+Secretaria del Medio Ambiente
+, la Secretaría del Medio Ambient
+e del Distrito Federal;
+XXXIX.
+Seguridad Pública
+, la Secretaría de Seguridad Pública del Distrito Federal;
+XL.
+Seguridad Vial
+, conjunto de políticas y sistemas orientados a la prevención de hechos de tránsito;
+XLI.
+Señalización  Vial
+,  conjunto  de  elementos  y  objetos  vi
+suales  de  contenido  informativo,  indicativo,  restrictivo, 
+preventivo, prohibitivo o de cualquier otro carácter, que se colocan la  infraestructura vial; 
+XLII.
+Substancia peligrosa,
+Todo elemento, compuesto, material o mezcla que independientemente de su estado
+físico, 
+represente un riesgo potencial para la salud, el ambiente, la seguridad de los usuarios y/o la propiedad de terceros;
+XLIII.
+Tirilla de resultados técnicos, 
+ticket papeleta que contiene: última fecha de verificación del aparato, fecha y hora 
+de la prueb
+a realizada, grados de alcohol en aire espirado, número de prueba, líneas punteadas sobre las cuales se 
+anota  nombre  completo  del  infractor,  registro  federal  de  contribuyentes,  número  de  licencia,  nombre  y  firma  del 
+médico o técnico aplicador;
+XLIV.
+Unidad  de  C
+uenta  de  la  Ciudad  de  México  (UCCM)
+,  El  valor  expresado  en  pesos  que  se  utilizará,  de  manera 
+individual o por múltiplos de ésta, para determinar sanciones y multas administrativas, conceptos de pago y montos 
+de referencia, previstos en las normas locales v
+igentes del Distrito Federal.
+XLV.
+Usuarios vulnerables de la vía
+, aquellos usuarios que están expuestos a  un mayor peligro durante su circulación 
+en la vía ya que no cuentan con una estructura de protección, por lo que son más propensos a sufrir lesiones grav
+es 
+o incluso perder la vida cuando se ven involucrados en hechos de tránsito;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -276,13 +408,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,70 +996,14 @@
       <c r="L6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>if (lastUserMessage === '¿Qué dice el artículo 4? || lastUserMessage == 'Artículo 4) || lastUserMessage == 'articulo 4') || lastUserMessage == '¿que dice el articulo 4?') {        botMessage = 'Además de lo que señala la Ley y sus reglamentos, para los efectos de este Reglamento, se entiende por:
-I.Agente, elemento de la Policía del Distrito Federal con funciones para el control de tránsito;
-II.Amonestación verbal, acto por el  cual  el agente  advierte  a los peatones, conductores  y  pasajeros de  un  vehículo sobre  el  incumplimiento  cometido  a  las  disposiciones  de  este  reglamento  y  tiene  como  propósito  orientarlos  a conducirse de conformidad con lo establecido en el mismo y prevenir la realización de otras conductas similares;
-III.Área de espera para bicicletas y motocicletas, zona marcada sobre el pavimento en una intersección de vías que tengan  semáforos,  que  permite  a  los  conductores  de  estos  vehículos  aguardar  la  luz  verde  del  semáforo  en  una posición adelantada, de tal forma que sean visibles a los conductores del resto de los vehículos;
-IV.Ayudas técnicas, dispositivos tecnológicos y materiales que permiten habilitar, rehabilitar o compensar una o más 
-limitaciones funcionales, motrices, sensoriales o intelectuales de las Personas con Discapacidad. 
-V.Bicicleta, Vehículo no motorizado de propulsión humana a través de pedales;
-VI.Boleta, documento en donde se hace constar la 
-infracción y la sanción correspondiente; VII.
-Carril, espacio asignado para la circulación de vehículos, ubicado sobre la superficie de rodadura y delimitado por  
-líneas continuas o discontinuas, el cual debe contar con el ancho suficiente para la circulación de vehículos en una 
-fila;
-VIII. Carril confinado, superficie de rodadura con dispositivos de delimitación en su perímetro para el uso preferente o exclusivo de servicios de transporte, así como de cierto tipo de vehículos;
-IX.Ciclista, conductor de un vehículo de tracción humana a través de pedales; se considera también ciclista a aquellos que conducen bicicletas asistidas por motores eléctricos, siempre y cuando ésta desarrolle velocidades de hasta 25 kilómetros por hora; los menores de doce años a bordo de un vehículo no motorizado serán considerados peatones; 
-X.Circulación, desplazamiento por la vía pública de peatones, conductores y ocupantes de vehículos.
-XI. Conductor, toda persona que maneje un vehículo en cualquiera de sus modalidades;
-XII. Cruce  peatonal, área  sobre  el  arroyo  vehicular  asignada  para  el  tránsito  de  peatones,  puede estar  a  nivel  de  la acera o superficie de rodadura;                        XIII. Dispositivos  para  el  control  del  tránsito,  conjunto  de  elementos  que  ordenan  y  orientan  los  movimientos  de tránsito de personas y circulación de vehículos; que previenen y proporcionan información a los usuarios de la vía para garantizar su seguridad, permitiendo una operación efectiva del flujo peatonal y vehicular;
-XIV. Elemento de Seguridad Pública, miembro de la policía preventiva o complementaria;
-XV.Espacios  para  servicios  especiales,  son  todos  aquellos  sitios  en  la  vía  pública  debidamente  autorizados  por  la Secretaría,  exclusivos  para  realizar  maniobras  de  ascenso  y  descenso  de  pasajeros  o  para  como  áreas  reservadas para  personas  con  discapacidad,  servicio  de  acomodadores,  bicicletas  y  motocicletas,  sitios  y  lanzaderas  de transporte público, áreas para carga y descarga, transporte de valores, correos, mensajería, mensajería y paquetería, 
-recolección de residuos sólidos, vehículos
-de emergencia, y los que se señalen por la Secretaria;
-XVI. Formato  de  hecho  de  tránsito,  cédula  en  la  que  se  establecen  las  circunstancias  de  tiempo,  lugar  y  modo  de incidentes  viales,  en  la  cual  el  agente  o  elemento  de  Seguridad  Pública  registra:  fecha,  hora,  lugar;  datos  de  las personas y vehículos involucrados, en su caso, número de lesionados o fallecidos; servicios de  emergencia y en su caso,  del  Ministerio  Publico;  y  cualquier  otro  dato  que  sea  necesario  para  determinar  las  características  del incidente y responsabilidad de quienes hayan intervenido en el hecho. 
-XVII.Hecho  de  tránsito,  evento  producido  por  el  tránsito  vehicular,  en  el  que  interviene  por  lo  menos  un  vehículo, causando daños materiales, lesiones y/o muerte de personas;
-XVIII. Infracción, conducta que transgrede alguna disposición del presente reglamento o demás disposiciones de tránsito aplicables y que tiene como consecuencia una sanción;
-XIX. Intersección,  nodo  donde  convergen  dos  o  más  vías,  en  la  que  se  realizan  los  movimientos direccionales  del tránsito peatonal o vehicular de forma directa o canalizada por islas;
-XX. Juez Cívico, los Jueces Cívicos adscritos a la Consejería Jurídica y de Servicios Legales;
-XXI. Ley, la Ley de Movilidad del Distrito Federal;
-XXII.Motocicleta,  vehículo  motorizado  que  utiliza  m
-anubrio  para  su  conducción,  de  una  o  más  plazas,  con  dos  o  más ruedas, que está equipado con motor eléctrico, de combustión interna de dos o cuatro tiempos, con un cilindraje a partir  de  cuarenta  y  nueve  centímetros  cúbicos  de  desplazamiento  o  impulsado  por  cualquier  otra  fuerza  motriz, que cumpla con las disposiciones estipuladas en la Norma Oficial Mexicana en materia de identificación vehicular;
-XXIII. Motociclista, persona que conduce una motocicleta;
-XXIV. Peatón, persona que transita por la vía a pie  y/o que uti
-liza ayudas técnicas por su condición de discapacidad o 
-movilidad  limitada,  así  como  en  patines,  patineta  u  otros  vehículos  recreativos;  incluye  a  niños  menores  de  doce 
-años a bordo de un vehículo no motorizado;
-XXV.
-Personal  de  apoyo  vial
-,  elemento  de  la  Secr
-etaría  responsable  de  brindar  información  vial,  prestar  apoyo  a 
-peatones  y  conductores  de  vehículos,  así  como  promover  la  cultura  vial  y  auxiliar  en  contingencias  causadas  por 
-hechos de tránsito o eventos públicos masivos;
-XXVI.
-Persona   con  discapacidad
-, 
-aquell
-as  personas  que   tengan   deficiencias   físicas,   mentales,   intelectuales,   o 
-sensoriales a largo plazo que al interactuar con diversas barreras, puedan impedir su participación plena y efectiva 
-en la sociedad, en igualdad de condiciones con las demás
-l;
-XXVII.
-Persona
-s  con  movilidad  limitada,
-personas  que  de  forma  temporal  o  permanente,  debido  a  enfermedad,  edad, 
-accidente  o  alguna  otra  condición,  realizan  un  desplazamiento  lento,  difícil  o  desequilibrado.  Incluye  a  niños, 
-mujeres  en  periodo  de  gestación,  adultos  mayor
-es,  adultos  que  transitan  con  niños  pequeños,  personas  con 
-discapacidad, personas con equipaje o paquetes;                                                                                ; }</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">

--- a/chatBot/datosChatBoot.xlsx
+++ b/chatBot/datosChatBoot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bengie\Documents\GitHub\Tematico-III\chatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08157EEA-9022-4E85-8DC3-B29883AB94C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01CB1082-6A8B-45E7-A904-EE103973B20E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
